--- a/無双ゲーム/スケジュール/スケジュール.xlsx
+++ b/無双ゲーム/スケジュール/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\3年ゲーム制作\スケジュール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\次のゲーム\無双ゲーム\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>作業スケジュール</t>
     <rPh sb="0" eb="2">
@@ -163,6 +163,47 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定追加</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殴って消す</t>
+    <rPh sb="0" eb="1">
+      <t>ナグ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション諸々</t>
+    <rPh sb="7" eb="9">
+      <t>モロモロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,32 +361,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -656,23 +779,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="7" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="42">
+    <row r="1" spans="1:36" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
@@ -689,11 +812,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="H3" s="6" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -710,8 +833,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1"/>
-    <row r="9" spans="1:22">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -767,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -835,17 +958,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="6">
         <v>43200</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>43201</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>43202</v>
       </c>
       <c r="E11" s="3">
@@ -903,24 +1026,24 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -936,22 +1059,359 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="11"/>
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43221</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43222</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43223</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43224</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43225</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43226</v>
+      </c>
+      <c r="H18" s="7">
+        <v>43227</v>
+      </c>
+      <c r="I18" s="7">
+        <v>43228</v>
+      </c>
+      <c r="J18" s="7">
+        <v>43229</v>
+      </c>
+      <c r="K18" s="7">
+        <v>43230</v>
+      </c>
+      <c r="L18" s="7">
+        <v>43231</v>
+      </c>
+      <c r="M18" s="7">
+        <v>43232</v>
+      </c>
+      <c r="N18" s="7">
+        <v>43233</v>
+      </c>
+      <c r="O18" s="7">
+        <v>43234</v>
+      </c>
+      <c r="P18" s="7">
+        <v>43235</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>43236</v>
+      </c>
+      <c r="R18" s="7">
+        <v>43237</v>
+      </c>
+      <c r="S18" s="7">
+        <v>43238</v>
+      </c>
+      <c r="T18" s="7">
+        <v>43239</v>
+      </c>
+      <c r="U18" s="7">
+        <v>43240</v>
+      </c>
+      <c r="V18" s="7">
+        <v>43241</v>
+      </c>
+      <c r="W18" s="7">
+        <v>43242</v>
+      </c>
+      <c r="X18" s="7">
+        <v>43243</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>43244</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>43245</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>43246</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>43247</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>43248</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>43249</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>43250</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="O19:P19"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H12:I12"/>
@@ -961,20 +1421,20 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A14:XFD1048576 A13:B13 D13:N13 Q13:XFD13 A1:XFD12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13:B13 D13:N13 Q13:XFD13 A1:XFD12 A20:XFD1048576 A19:G19 A14:XFD18 K19:XFD19">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>$N$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>$M$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>$K$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/無双ゲーム/スケジュール/スケジュール.xlsx
+++ b/無双ゲーム/スケジュール/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\次のゲーム\無双ゲーム\スケジュール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\TOMITA\無双ゲーム\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>作業スケジュール</t>
     <rPh sb="0" eb="2">
@@ -205,6 +205,63 @@
     <rPh sb="7" eb="9">
       <t>モロモロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーの追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまごまな演出調整</t>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力調整</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートマシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金曜日</t>
+    <rPh sb="0" eb="3">
+      <t>キンヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -276,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -336,13 +393,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,14 +531,881 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -779,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,12 +1803,12 @@
     <col min="6" max="7" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
@@ -812,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
@@ -833,8 +1846,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -890,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -958,7 +1971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +2039,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +2072,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +2086,7 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1154,14 +2167,6 @@
       <c r="AF16" s="2">
         <v>3</v>
       </c>
-      <c r="AG16" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -1261,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1283,40 +2288,40 @@
       <c r="G18" s="7">
         <v>43226</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="16">
         <v>43227</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="16">
         <v>43228</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="16">
         <v>43229</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="16">
         <v>43230</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="16">
         <v>43231</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="16">
         <v>43232</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="16">
         <v>43233</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="16">
         <v>43234</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="16">
         <v>43235</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="16">
         <v>43236</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="16">
         <v>43237</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="16">
         <v>43238</v>
       </c>
       <c r="T18" s="7">
@@ -1359,7 +2364,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1372,46 +2377,378 @@
       <c r="F19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="11"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>4</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>5</v>
+      </c>
+      <c r="U21" s="2">
+        <v>3</v>
+      </c>
+      <c r="V21" s="2">
+        <v>4</v>
+      </c>
+      <c r="W21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43252</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43253</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43254</v>
+      </c>
+      <c r="E23" s="7">
+        <v>43255</v>
+      </c>
+      <c r="F23" s="7">
+        <v>43256</v>
+      </c>
+      <c r="G23" s="7">
+        <v>43257</v>
+      </c>
+      <c r="H23" s="7">
+        <v>43258</v>
+      </c>
+      <c r="I23" s="7">
+        <v>43259</v>
+      </c>
+      <c r="J23" s="7">
+        <v>43260</v>
+      </c>
+      <c r="K23" s="7">
+        <v>43261</v>
+      </c>
+      <c r="L23" s="7">
+        <v>43262</v>
+      </c>
+      <c r="M23" s="7">
+        <v>43263</v>
+      </c>
+      <c r="N23" s="7">
+        <v>43264</v>
+      </c>
+      <c r="O23" s="7">
+        <v>43265</v>
+      </c>
+      <c r="P23" s="7">
+        <v>43266</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>43267</v>
+      </c>
+      <c r="R23" s="7">
+        <v>43268</v>
+      </c>
+      <c r="S23" s="7">
+        <v>43269</v>
+      </c>
+      <c r="T23" s="7">
+        <v>43270</v>
+      </c>
+      <c r="U23" s="7">
+        <v>43271</v>
+      </c>
+      <c r="V23" s="7">
+        <v>43272</v>
+      </c>
+      <c r="W23" s="7">
+        <v>43273</v>
+      </c>
+      <c r="X23" s="7">
+        <v>43274</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>43275</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>43276</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>43277</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>43278</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>43279</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>43280</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>43281</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="H12:I12"/>
@@ -1421,20 +2758,173 @@
     <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A13:B13 D13:N13 Q13:XFD13 A1:XFD12 A20:XFD1048576 A19:G19 A14:XFD18 K19:XFD19">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13:B13 D13:N13 Q13:XFD13 A1:XFD12 A20:XFD20 A19:G19 A14:XFD18 A25:XFD1048576 K19 O19 AE19:XFD19 Q19 S19:Y19 AG22:XFD24 I21:K21 Q21:R21 X21:Y21 AE21:XFD21">
+    <cfRule type="cellIs" dxfId="79" priority="56" operator="equal">
       <formula>$N$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
       <formula>$M$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="58" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="60" operator="equal">
       <formula>$K$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="61" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:G24 K24:N24 Q24:AF24 A22:AF23 A21 C21:D21">
+    <cfRule type="cellIs" dxfId="74" priority="51" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="52" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="53" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="54" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="37" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:H21">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:O21">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="22" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:V21">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD21">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AC21">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>$K$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
